--- a/weights.xlsx
+++ b/weights.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13512"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15252" windowHeight="8676"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,45 +24,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
+  <si>
+    <t>bu</t>
+  </si>
+  <si>
+    <t>pcv</t>
+  </si>
+  <si>
+    <t>ane</t>
+  </si>
   <si>
     <t>bp</t>
   </si>
   <si>
-    <t>al</t>
+    <t>su</t>
+  </si>
+  <si>
+    <t>hemo</t>
+  </si>
+  <si>
+    <t>wc</t>
+  </si>
+  <si>
+    <t>rc</t>
+  </si>
+  <si>
+    <t>cad</t>
+  </si>
+  <si>
+    <t>pe</t>
+  </si>
+  <si>
+    <t>pc</t>
+  </si>
+  <si>
+    <t>appet</t>
   </si>
   <si>
     <t>ba</t>
   </si>
   <si>
-    <t>bu</t>
+    <t>sod</t>
   </si>
   <si>
     <t>pot</t>
-  </si>
-  <si>
-    <t>hemo</t>
-  </si>
-  <si>
-    <t>pcv</t>
-  </si>
-  <si>
-    <t>wc</t>
-  </si>
-  <si>
-    <t>ane</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>k = 10</t>
-  </si>
-  <si>
-    <t>pe</t>
-  </si>
-  <si>
-    <t>k = 5</t>
   </si>
 </sst>
 </file>
@@ -380,15 +386,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -398,128 +404,206 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>4.6780000000000002E-2</v>
+      </c>
+      <c r="B2">
+        <v>-5.2409999999999998E-2</v>
+      </c>
+      <c r="C2">
+        <v>0.92727000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="I4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="J4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2.777E-2</v>
+      </c>
+      <c r="B5">
+        <v>8.8880000000000001E-2</v>
+      </c>
+      <c r="C5">
+        <v>4.1790000000000001E-2</v>
+      </c>
+      <c r="D5">
+        <v>-6.6669999999999993E-2</v>
+      </c>
+      <c r="E5">
+        <v>-1.485E-2</v>
+      </c>
+      <c r="F5">
+        <v>-5.0000000000000002E-5</v>
+      </c>
+      <c r="G5">
+        <v>-4.0009999999999997E-2</v>
+      </c>
+      <c r="H5">
+        <v>-9.0700000000000003E-2</v>
+      </c>
+      <c r="I5">
+        <v>1.2283299999999999</v>
+      </c>
+      <c r="J5">
+        <v>0.90885000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>2.65426E-2</v>
-      </c>
-      <c r="B2">
-        <v>0.54530873999999996</v>
-      </c>
-      <c r="C2">
-        <v>-0.99704437999999995</v>
-      </c>
-      <c r="D2">
-        <v>4.395992E-2</v>
-      </c>
-      <c r="E2">
-        <v>-0.11166339</v>
-      </c>
-      <c r="F2">
-        <v>-6.2223390000000003E-2</v>
-      </c>
-      <c r="G2">
-        <v>-2.945942E-2</v>
-      </c>
-      <c r="H2">
-        <v>-6.3700000000000003E-5</v>
-      </c>
-      <c r="I2">
-        <v>0.48540421</v>
-      </c>
-      <c r="J2">
-        <v>-0.53628394999999995</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="C7" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2.998E-2</v>
+      </c>
+      <c r="B8">
+        <v>0.67857999999999996</v>
+      </c>
+      <c r="C8">
+        <v>4.3459999999999999E-2</v>
+      </c>
+      <c r="D8">
+        <v>-0.12515000000000001</v>
+      </c>
+      <c r="E8">
+        <v>1.43438</v>
+      </c>
+      <c r="F8">
+        <v>1.06457</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>3.6110000000000003E-2</v>
+      </c>
+      <c r="B11">
+        <v>4.9360000000000001E-2</v>
+      </c>
+      <c r="C11">
+        <v>-0.14704</v>
+      </c>
+      <c r="D11">
+        <v>1.3989</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="H13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>2.905276E-2</v>
-      </c>
-      <c r="B5">
-        <v>0.36386394</v>
-      </c>
-      <c r="C5">
-        <v>-1.07119388</v>
-      </c>
-      <c r="D5">
-        <v>4.1238950000000003E-2</v>
-      </c>
-      <c r="E5">
-        <v>-9.6097840000000004E-2</v>
-      </c>
-      <c r="F5">
-        <v>-4.7528710000000002E-2</v>
-      </c>
-      <c r="G5">
-        <v>-1.7434600000000001E-2</v>
-      </c>
-      <c r="H5">
-        <v>-7.6440000000000007E-5</v>
-      </c>
-      <c r="I5">
-        <v>0.96629032000000004</v>
-      </c>
-      <c r="J5">
-        <v>0.69408943999999995</v>
-      </c>
-      <c r="L5" t="s">
-        <v>12</v>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2.6429999999999999E-2</v>
+      </c>
+      <c r="B14">
+        <v>-0.42087999999999998</v>
+      </c>
+      <c r="C14">
+        <v>4.5370000000000001E-2</v>
+      </c>
+      <c r="D14">
+        <v>-1.307E-2</v>
+      </c>
+      <c r="E14">
+        <v>-9.6000000000000002E-2</v>
+      </c>
+      <c r="F14">
+        <v>-9.8100000000000007E-2</v>
+      </c>
+      <c r="G14">
+        <v>-3.8980000000000001E-2</v>
+      </c>
+      <c r="H14">
+        <v>-5.0000000000000002E-5</v>
+      </c>
+      <c r="I14">
+        <v>0.65141000000000004</v>
       </c>
     </row>
   </sheetData>
